--- a/public/template/Template_Dirjab.xlsx
+++ b/public/template/Template_Dirjab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\DIRJAB-IP\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D4BEED-948D-4CF3-93E4-2A08B42AA8E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8BC117-4AB3-496B-A1DA-B86CE02B40B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -207,7 +207,7 @@
       <patternFill patternType="none"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -395,6 +395,21 @@
       <right/>
       <top style="thin">
         <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
@@ -405,7 +420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -450,6 +465,50 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -459,18 +518,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -483,38 +530,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -904,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I208"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E141" sqref="E141"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65:C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -945,44 +961,44 @@
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
       <c r="F4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="30"/>
-      <c r="H4" s="31"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="43"/>
     </row>
     <row r="5" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
       <c r="F5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G5" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="31"/>
+      <c r="H5" s="43"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="31"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="43"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
@@ -993,10 +1009,10 @@
       <c r="F7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="31"/>
+      <c r="H7" s="43"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
@@ -1009,15 +1025,15 @@
     </row>
     <row r="10" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="18" t="s">
@@ -1027,27 +1043,27 @@
       <c r="D11" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
     </row>
     <row r="12" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="32"/>
+      <c r="C12" s="44"/>
       <c r="D12" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
     </row>
     <row r="13" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="18" t="s">
@@ -1057,12 +1073,12 @@
       <c r="D13" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
     </row>
     <row r="14" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="18" t="s">
@@ -1072,12 +1088,12 @@
       <c r="D14" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
     </row>
     <row r="15" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="18" t="s">
@@ -1087,12 +1103,12 @@
       <c r="D15" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="18" t="s">
@@ -1102,10 +1118,10 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
     </row>
     <row r="17" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="18" t="s">
@@ -1115,12 +1131,12 @@
       <c r="D17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="27" t="s">
+      <c r="E17" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
     </row>
     <row r="18" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="18" t="s">
@@ -1130,12 +1146,12 @@
       <c r="D18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="27" t="s">
+      <c r="E18" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
@@ -1147,26 +1163,26 @@
       <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
     </row>
     <row r="22" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="11"/>
@@ -1188,45 +1204,45 @@
     </row>
     <row r="25" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="38" t="s">
+      <c r="C26" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="38" t="s">
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="H26" s="40"/>
+      <c r="H26" s="28"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="21">
         <v>1</v>
       </c>
-      <c r="C27" s="41" t="s">
+      <c r="C27" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="43" t="s">
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="H27" s="42"/>
+      <c r="H27" s="32"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E28"/>
@@ -1309,15 +1325,15 @@
       </c>
     </row>
     <row r="54" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="36" t="s">
+      <c r="B54" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C54" s="37"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="37"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="37"/>
-      <c r="H54" s="37"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B55" s="16" t="s">
@@ -1361,52 +1377,64 @@
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E64"/>
     </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C65" s="45"/>
       <c r="E65"/>
     </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C66" s="45"/>
       <c r="E66"/>
     </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E67"/>
     </row>
-    <row r="68" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E68"/>
     </row>
-    <row r="69" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C69" s="45"/>
       <c r="E69"/>
     </row>
-    <row r="70" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C70" s="45"/>
       <c r="E70"/>
     </row>
-    <row r="71" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C71" s="45"/>
       <c r="E71"/>
     </row>
-    <row r="72" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C72" s="45"/>
       <c r="E72"/>
     </row>
-    <row r="73" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C73" s="45"/>
       <c r="E73"/>
     </row>
-    <row r="74" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C74" s="45"/>
       <c r="E74"/>
     </row>
-    <row r="75" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E75"/>
     </row>
-    <row r="76" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E76"/>
     </row>
-    <row r="77" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C77" s="45"/>
       <c r="E77"/>
     </row>
-    <row r="78" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C78" s="45"/>
       <c r="E78"/>
     </row>
-    <row r="79" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C79" s="45"/>
       <c r="E79"/>
     </row>
-    <row r="80" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C80" s="45"/>
       <c r="E80"/>
     </row>
     <row r="81" spans="5:5" x14ac:dyDescent="0.25">
@@ -1646,7 +1674,7 @@
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E143"/>
     </row>
-    <row r="144" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="13"/>
       <c r="B144" s="13"/>
       <c r="C144" s="13"/>
@@ -1916,20 +1944,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="26">
-    <mergeCell ref="B54:H54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B22:H22"/>
     <mergeCell ref="A4:E5"/>
     <mergeCell ref="A6:E7"/>
     <mergeCell ref="E11:H11"/>
@@ -1942,6 +1956,20 @@
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:H27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/public/template/Template_Dirjab.xlsx
+++ b/public/template/Template_Dirjab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\DIRJAB-IP\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8BC117-4AB3-496B-A1DA-B86CE02B40B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310C25C5-F999-4C08-ACFA-96F15235E62F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>URAIAN JABATAN</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>No Record</t>
-  </si>
-  <si>
-    <t>KP-00000</t>
   </si>
   <si>
     <t>Revisi</t>
@@ -207,7 +204,7 @@
       <patternFill patternType="none"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -363,38 +360,14 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
@@ -405,6 +378,17 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -449,88 +433,90 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -920,8 +906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65:C66"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -961,228 +947,226 @@
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
       <c r="F4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="42"/>
-      <c r="H4" s="43"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="30"/>
     </row>
     <row r="5" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
       <c r="F5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="G5" s="29"/>
+      <c r="H5" s="30"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="43"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="14" t="s">
+      <c r="G6" s="29"/>
+      <c r="H6" s="30"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="42"/>
-      <c r="H6" s="43"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="14" t="s">
+      <c r="G7" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="30"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="43"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="B9" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="18" t="s">
+      <c r="C11" s="17"/>
+      <c r="D11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="17" t="s">
+      <c r="E11" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+    </row>
+    <row r="12" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-    </row>
-    <row r="12" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="44" t="s">
+      <c r="C12" s="31"/>
+      <c r="D12" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="30" t="s">
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+    </row>
+    <row r="13" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-    </row>
-    <row r="13" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="18" t="s">
+      <c r="C13" s="17"/>
+      <c r="D13" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="30" t="s">
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+    </row>
+    <row r="14" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-    </row>
-    <row r="14" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="18" t="s">
+      <c r="C14" s="17"/>
+      <c r="D14" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="30" t="s">
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+    </row>
+    <row r="15" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-    </row>
-    <row r="15" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="18" t="s">
+      <c r="C15" s="17"/>
+      <c r="D15" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="30" t="s">
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="18" t="s">
+      <c r="C16" s="17"/>
+      <c r="D16" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+    </row>
+    <row r="17" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-    </row>
-    <row r="17" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="18" t="s">
+      <c r="C17" s="17"/>
+      <c r="D17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="30" t="s">
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+    </row>
+    <row r="18" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-    </row>
-    <row r="18" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="18" t="s">
+      <c r="C18" s="17"/>
+      <c r="D18" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="30" t="s">
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+      <c r="B20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
     </row>
     <row r="22" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
+      <c r="B22" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="11"/>
@@ -1194,55 +1178,55 @@
       <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="16" t="s">
+      <c r="C26" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="H26" s="28"/>
+      <c r="H26" s="38"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="21">
+      <c r="B27" s="39">
         <v>1</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="H27" s="32"/>
+      <c r="H27" s="41"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E28"/>
@@ -1318,37 +1302,37 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B53" s="1" t="s">
+    </row>
+    <row r="54" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="34" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C54" s="24"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="24"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="16" t="s">
+      <c r="B55" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C55" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C55" s="25" t="s">
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="H55" s="25"/>
+      <c r="H55" s="38"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E56"/>
@@ -1377,63 +1361,75 @@
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E64"/>
     </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C65" s="45"/>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65" s="43"/>
+      <c r="C65" s="43"/>
       <c r="E65"/>
     </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C66" s="45"/>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66" s="43"/>
+      <c r="C66" s="43"/>
       <c r="E66"/>
     </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E67"/>
     </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E68"/>
     </row>
-    <row r="69" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69" s="44"/>
       <c r="C69" s="45"/>
       <c r="E69"/>
     </row>
-    <row r="70" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B70" s="44"/>
       <c r="C70" s="45"/>
       <c r="E70"/>
     </row>
-    <row r="71" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B71" s="44"/>
       <c r="C71" s="45"/>
       <c r="E71"/>
     </row>
-    <row r="72" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B72" s="44"/>
       <c r="C72" s="45"/>
       <c r="E72"/>
     </row>
-    <row r="73" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B73" s="44"/>
       <c r="C73" s="45"/>
       <c r="E73"/>
     </row>
-    <row r="74" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B74" s="44"/>
       <c r="C74" s="45"/>
       <c r="E74"/>
     </row>
-    <row r="75" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E75"/>
     </row>
-    <row r="76" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E76"/>
     </row>
-    <row r="77" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B77" s="44"/>
       <c r="C77" s="45"/>
       <c r="E77"/>
     </row>
-    <row r="78" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B78" s="44"/>
       <c r="C78" s="45"/>
       <c r="E78"/>
     </row>
-    <row r="79" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B79" s="44"/>
       <c r="C79" s="45"/>
       <c r="E79"/>
     </row>
-    <row r="80" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B80" s="44"/>
       <c r="C80" s="45"/>
       <c r="E80"/>
     </row>
@@ -1674,7 +1670,7 @@
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E143"/>
     </row>
-    <row r="144" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="13"/>
       <c r="B144" s="13"/>
       <c r="C144" s="13"/>
@@ -1862,7 +1858,7 @@
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E187"/>
     </row>
-    <row r="188" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188"/>
       <c r="B188"/>
       <c r="C188"/>
@@ -1873,7 +1869,7 @@
       <c r="H188"/>
       <c r="I188"/>
     </row>
-    <row r="189" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189"/>
       <c r="B189"/>
       <c r="C189"/>
@@ -1943,7 +1939,33 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="26">
+  <mergeCells count="38">
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B22:H22"/>
     <mergeCell ref="A4:E5"/>
     <mergeCell ref="A6:E7"/>
     <mergeCell ref="E11:H11"/>
@@ -1956,20 +1978,6 @@
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B54:H54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:H27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/public/template/Template_Dirjab.xlsx
+++ b/public/template/Template_Dirjab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\DIRJAB-IP\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310C25C5-F999-4C08-ACFA-96F15235E62F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA6411E-0D70-467E-AED9-B766073B7613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
-    <t>URAIAN JABATAN</t>
-  </si>
-  <si>
     <t>Tanggal</t>
   </si>
   <si>
@@ -146,6 +143,9 @@
   </si>
   <si>
     <t>Sudah divalidasi</t>
+  </si>
+  <si>
+    <t>TEMPLATE JABATAN</t>
   </si>
 </sst>
 </file>
@@ -404,7 +404,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -446,6 +446,50 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -458,15 +502,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -478,44 +513,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -906,8 +903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -947,226 +944,226 @@
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="14" t="s">
+      <c r="G4" s="42"/>
+      <c r="H4" s="43"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="29"/>
-      <c r="H4" s="30"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="15" t="s">
+      <c r="G5" s="42"/>
+      <c r="H5" s="43"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="29"/>
-      <c r="H5" s="30"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="14" t="s">
+      <c r="G6" s="42"/>
+      <c r="H6" s="43"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="29"/>
-      <c r="H6" s="30"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="30"/>
+      <c r="G7" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="43"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
+      <c r="B10" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+    </row>
+    <row r="12" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-    </row>
-    <row r="12" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="31" t="s">
+      <c r="C12" s="44"/>
+      <c r="D12" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
     </row>
     <row r="13" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
+        <v>8</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
     </row>
     <row r="14" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
+        <v>8</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
     </row>
     <row r="15" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
+        <v>8</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
+        <v>8</v>
+      </c>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
     </row>
     <row r="17" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
+        <v>8</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
     </row>
     <row r="18" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
+        <v>8</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
     </row>
     <row r="22" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
+      <c r="B22" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="11"/>
@@ -1179,54 +1176,54 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="37" t="s">
+      <c r="C26" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="38" t="s">
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="H26" s="38"/>
+      <c r="H26" s="28"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="39">
+      <c r="B27" s="22">
         <v>1</v>
       </c>
-      <c r="C27" s="40" t="s">
+      <c r="C27" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="H27" s="41"/>
+      <c r="H27" s="32"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E28"/>
@@ -1302,37 +1299,37 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="1" t="s">
+    </row>
+    <row r="54" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="26" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="35"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="37" t="s">
+      <c r="B55" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C55" s="38" t="s">
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D55" s="38"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="38"/>
-      <c r="G55" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="H55" s="38"/>
+      <c r="H55" s="28"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E56"/>
@@ -1362,13 +1359,13 @@
       <c r="E64"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B65" s="43"/>
-      <c r="C65" s="43"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="23"/>
       <c r="E65"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B66" s="43"/>
-      <c r="C66" s="43"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="23"/>
       <c r="E66"/>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.25">
@@ -1378,33 +1375,33 @@
       <c r="E68"/>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B69" s="44"/>
-      <c r="C69" s="45"/>
+      <c r="B69" s="24"/>
+      <c r="C69" s="25"/>
       <c r="E69"/>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B70" s="44"/>
-      <c r="C70" s="45"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="25"/>
       <c r="E70"/>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B71" s="44"/>
-      <c r="C71" s="45"/>
+      <c r="B71" s="24"/>
+      <c r="C71" s="25"/>
       <c r="E71"/>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B72" s="44"/>
-      <c r="C72" s="45"/>
+      <c r="B72" s="24"/>
+      <c r="C72" s="25"/>
       <c r="E72"/>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B73" s="44"/>
-      <c r="C73" s="45"/>
+      <c r="B73" s="24"/>
+      <c r="C73" s="25"/>
       <c r="E73"/>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B74" s="44"/>
-      <c r="C74" s="45"/>
+      <c r="B74" s="24"/>
+      <c r="C74" s="25"/>
       <c r="E74"/>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.25">
@@ -1414,23 +1411,23 @@
       <c r="E76"/>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B77" s="44"/>
-      <c r="C77" s="45"/>
+      <c r="B77" s="24"/>
+      <c r="C77" s="25"/>
       <c r="E77"/>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B78" s="44"/>
-      <c r="C78" s="45"/>
+      <c r="B78" s="24"/>
+      <c r="C78" s="25"/>
       <c r="E78"/>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B79" s="44"/>
-      <c r="C79" s="45"/>
+      <c r="B79" s="24"/>
+      <c r="C79" s="25"/>
       <c r="E79"/>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B80" s="44"/>
-      <c r="C80" s="45"/>
+      <c r="B80" s="24"/>
+      <c r="C80" s="25"/>
       <c r="E80"/>
     </row>
     <row r="81" spans="5:5" x14ac:dyDescent="0.25">
@@ -1940,32 +1937,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="38">
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B54:H54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B22:H22"/>
     <mergeCell ref="A4:E5"/>
     <mergeCell ref="A6:E7"/>
     <mergeCell ref="E11:H11"/>
@@ -1978,6 +1949,32 @@
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/public/template/Template_Dirjab.xlsx
+++ b/public/template/Template_Dirjab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\DIRJAB-IP\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA6411E-0D70-467E-AED9-B766073B7613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB8939D-D00B-4EED-BFA9-0C3B00617371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -204,7 +204,7 @@
       <patternFill patternType="none"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -400,11 +400,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -452,67 +461,77 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -903,8 +922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I208"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:H10"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56:H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -944,56 +963,56 @@
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
       <c r="F4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="42"/>
-      <c r="H4" s="43"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="30"/>
     </row>
     <row r="5" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
       <c r="F5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="42"/>
-      <c r="H5" s="43"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="30"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
       <c r="F6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="42"/>
-      <c r="H6" s="43"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="30"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
       <c r="F7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="42" t="s">
+      <c r="G7" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="43"/>
+      <c r="H7" s="30"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
@@ -1006,15 +1025,15 @@
     </row>
     <row r="10" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="17" t="s">
@@ -1024,29 +1043,29 @@
       <c r="D11" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-    </row>
-    <row r="12" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="44" t="s">
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="44"/>
+      <c r="C12" s="31"/>
       <c r="D12" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-    </row>
-    <row r="13" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="17" t="s">
         <v>12</v>
       </c>
@@ -1054,14 +1073,14 @@
       <c r="D13" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-    </row>
-    <row r="14" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="17" t="s">
         <v>14</v>
       </c>
@@ -1069,14 +1088,14 @@
       <c r="D14" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-    </row>
-    <row r="15" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="17" t="s">
         <v>16</v>
       </c>
@@ -1084,12 +1103,12 @@
       <c r="D15" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="17" t="s">
@@ -1099,12 +1118,12 @@
       <c r="D16" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-    </row>
-    <row r="17" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="17" t="s">
         <v>19</v>
       </c>
@@ -1112,14 +1131,14 @@
       <c r="D17" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="30" t="s">
+      <c r="E17" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-    </row>
-    <row r="18" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B18" s="17" t="s">
         <v>21</v>
       </c>
@@ -1127,12 +1146,12 @@
       <c r="D18" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="30" t="s">
+      <c r="E18" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
@@ -1144,26 +1163,26 @@
       <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
     </row>
     <row r="22" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="11"/>
@@ -1185,45 +1204,45 @@
     </row>
     <row r="25" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28" t="s">
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="H26" s="28"/>
+      <c r="H26" s="34"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="22">
         <v>1</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="33" t="s">
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="32"/>
+      <c r="H27" s="35"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E28"/>
@@ -1306,33 +1325,39 @@
       </c>
     </row>
     <row r="54" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="26" t="s">
+      <c r="B54" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="C54" s="27"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="27"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B55" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C55" s="28" t="s">
+      <c r="C55" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="28" t="s">
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="H55" s="28"/>
+      <c r="H55" s="34"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E56"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="46"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="46"/>
+      <c r="H56" s="46"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E57"/>
@@ -1359,13 +1384,13 @@
       <c r="E64"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B65" s="23"/>
-      <c r="C65" s="23"/>
+      <c r="B65" s="38"/>
+      <c r="C65" s="38"/>
       <c r="E65"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B66" s="23"/>
-      <c r="C66" s="23"/>
+      <c r="B66" s="38"/>
+      <c r="C66" s="38"/>
       <c r="E66"/>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.25">
@@ -1375,33 +1400,33 @@
       <c r="E68"/>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B69" s="24"/>
-      <c r="C69" s="25"/>
+      <c r="B69" s="36"/>
+      <c r="C69" s="37"/>
       <c r="E69"/>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B70" s="24"/>
-      <c r="C70" s="25"/>
+      <c r="B70" s="36"/>
+      <c r="C70" s="37"/>
       <c r="E70"/>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B71" s="24"/>
-      <c r="C71" s="25"/>
+      <c r="B71" s="36"/>
+      <c r="C71" s="37"/>
       <c r="E71"/>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B72" s="24"/>
-      <c r="C72" s="25"/>
+      <c r="B72" s="36"/>
+      <c r="C72" s="37"/>
       <c r="E72"/>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B73" s="24"/>
-      <c r="C73" s="25"/>
+      <c r="B73" s="36"/>
+      <c r="C73" s="37"/>
       <c r="E73"/>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B74" s="24"/>
-      <c r="C74" s="25"/>
+      <c r="B74" s="36"/>
+      <c r="C74" s="37"/>
       <c r="E74"/>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.25">
@@ -1411,23 +1436,23 @@
       <c r="E76"/>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B77" s="24"/>
-      <c r="C77" s="25"/>
+      <c r="B77" s="36"/>
+      <c r="C77" s="37"/>
       <c r="E77"/>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B78" s="24"/>
-      <c r="C78" s="25"/>
+      <c r="B78" s="36"/>
+      <c r="C78" s="37"/>
       <c r="E78"/>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B79" s="24"/>
-      <c r="C79" s="25"/>
+      <c r="B79" s="36"/>
+      <c r="C79" s="37"/>
       <c r="E79"/>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B80" s="24"/>
-      <c r="C80" s="25"/>
+      <c r="B80" s="36"/>
+      <c r="C80" s="37"/>
       <c r="E80"/>
     </row>
     <row r="81" spans="5:5" x14ac:dyDescent="0.25">
@@ -1936,30 +1961,9 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="38">
-    <mergeCell ref="A4:E5"/>
-    <mergeCell ref="A6:E7"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:H27"/>
+  <mergeCells count="40">
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="G56:H56"/>
     <mergeCell ref="B79:C79"/>
     <mergeCell ref="B80:C80"/>
     <mergeCell ref="B54:H54"/>
@@ -1975,6 +1979,29 @@
     <mergeCell ref="B69:C69"/>
     <mergeCell ref="B70:C70"/>
     <mergeCell ref="B71:C71"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="A4:E5"/>
+    <mergeCell ref="A6:E7"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:H12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/public/template/Template_Dirjab.xlsx
+++ b/public/template/Template_Dirjab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\DIRJAB-IP\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB8939D-D00B-4EED-BFA9-0C3B00617371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED06683-2482-47F9-9588-23E4516C7382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>Tanggal</t>
   </si>
@@ -49,54 +49,27 @@
     <t>:</t>
   </si>
   <si>
-    <t>SENIOR OFFICER ORGANIZATION DEVELOPMENT</t>
-  </si>
-  <si>
     <t>Sebutan Jabatan</t>
   </si>
   <si>
-    <t xml:space="preserve">- SENIOR OFFICER ORGANIZATION DEVELOPMENT
-</t>
-  </si>
-  <si>
     <t>Jenis Jabatan</t>
   </si>
   <si>
-    <t xml:space="preserve">- Fungsional
-</t>
-  </si>
-  <si>
     <t>Jenjang Jabatan</t>
   </si>
   <si>
-    <t xml:space="preserve">- G3
-</t>
-  </si>
-  <si>
     <t>Kelompok Profesi</t>
   </si>
   <si>
-    <t xml:space="preserve">- Strategi dan Sistem Manajemen SDM dan Organisasi
-</t>
-  </si>
-  <si>
     <t>Stream Business</t>
   </si>
   <si>
     <t>Unit Kerja</t>
   </si>
   <si>
-    <t xml:space="preserve">- Head Office
-</t>
-  </si>
-  <si>
     <t>Jabatan Atasan Langsung</t>
   </si>
   <si>
-    <t xml:space="preserve">- MANAGER ORGANIZATION AND WORKFORCE EFFECTIVENESS
-</t>
-  </si>
-  <si>
     <t>2.</t>
   </si>
   <si>
@@ -136,16 +109,13 @@
     <t>Mengevaluasi kesesuaian Organisasi agar mampu mendukung target pencapaian Perusahaan berdasarkan prinsip Good Corporate Governance (GCG), Sistem Manajemen Anti Penyuapan (SMAP) dan Sistem Manajemen Kepatuhan (SMK).</t>
   </si>
   <si>
-    <t>Menyelaraskan dan mengelola struktur organisasi sesuai arahan PT PLN (Persero) dengan Menyusun struktur organisasi berdasarkan kajian perubahan struktur organisasi.</t>
-  </si>
-  <si>
-    <t>Dokumen struktur organisasi</t>
-  </si>
-  <si>
     <t>Sudah divalidasi</t>
   </si>
   <si>
     <t>TEMPLATE JABATAN</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -413,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -461,6 +431,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -488,6 +467,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -498,7 +483,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -506,31 +497,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -922,14 +898,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56:H56"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.125" customWidth="1"/>
-    <col min="2" max="2" width="4" customWidth="1"/>
+    <col min="2" max="2" width="4" style="16" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="5" customWidth="1"/>
     <col min="5" max="5" width="40" style="11" customWidth="1"/>
@@ -950,6 +926,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
+      <c r="B2"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -963,77 +940,80 @@
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
+      <c r="A4" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
       <c r="F4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="29"/>
-      <c r="H4" s="30"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="33"/>
     </row>
     <row r="5" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
       <c r="F5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="29"/>
-      <c r="H5" s="30"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="33"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
       <c r="F6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="29"/>
-      <c r="H6" s="30"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="33"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
       <c r="F7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="30"/>
+      <c r="G7" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="33"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="23" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="17" t="s">
@@ -1043,146 +1023,137 @@
       <c r="D11" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="31"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="17" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="17" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="17" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
+      <c r="E16" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E17" s="29"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+    </row>
+    <row r="18" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B19"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>17</v>
       </c>
       <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
+      <c r="B21" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
+      <c r="B22" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="11"/>
@@ -1195,54 +1166,50 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>20</v>
       </c>
       <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
+      <c r="B25" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="H26" s="34"/>
+        <v>22</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="39"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="22">
         <v>1</v>
       </c>
-      <c r="C27" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="H27" s="35"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="41"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E28"/>
@@ -1316,191 +1283,207 @@
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E51"/>
     </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="48"/>
+    </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="C54" s="45"/>
-      <c r="D54" s="45"/>
-      <c r="E54" s="45"/>
-      <c r="F54" s="45"/>
-      <c r="G54" s="45"/>
-      <c r="H54" s="45"/>
+      <c r="B54" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C54" s="46"/>
+      <c r="D54" s="46"/>
+      <c r="E54" s="46"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="46"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B55" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C55" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="H55" s="34"/>
+        <v>22</v>
+      </c>
+      <c r="C55" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="H55" s="39"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="16"/>
-      <c r="C56" s="46"/>
-      <c r="D56" s="46"/>
-      <c r="E56" s="46"/>
-      <c r="F56" s="46"/>
-      <c r="G56" s="46"/>
-      <c r="H56" s="46"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B57"/>
       <c r="E57"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B58"/>
       <c r="E58"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B59"/>
       <c r="E59"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B60"/>
       <c r="E60"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B61"/>
       <c r="E61"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B62" s="13"/>
       <c r="E62"/>
     </row>
     <row r="63" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63"/>
       <c r="E63"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B64" s="13"/>
       <c r="E64"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B65" s="38"/>
-      <c r="C65" s="38"/>
+      <c r="B65" s="47"/>
+      <c r="C65" s="47"/>
       <c r="E65"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B66" s="38"/>
-      <c r="C66" s="38"/>
+      <c r="B66" s="47"/>
+      <c r="C66" s="47"/>
       <c r="E66"/>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67"/>
       <c r="E67"/>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68"/>
       <c r="E68"/>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B69" s="36"/>
-      <c r="C69" s="37"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="44"/>
       <c r="E69"/>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B70" s="36"/>
-      <c r="C70" s="37"/>
+      <c r="B70" s="43"/>
+      <c r="C70" s="44"/>
       <c r="E70"/>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B71" s="36"/>
-      <c r="C71" s="37"/>
+      <c r="B71" s="43"/>
+      <c r="C71" s="44"/>
       <c r="E71"/>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B72" s="36"/>
-      <c r="C72" s="37"/>
+      <c r="B72" s="43"/>
+      <c r="C72" s="44"/>
       <c r="E72"/>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B73" s="36"/>
-      <c r="C73" s="37"/>
+      <c r="B73" s="43"/>
+      <c r="C73" s="44"/>
       <c r="E73"/>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B74" s="36"/>
-      <c r="C74" s="37"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="44"/>
       <c r="E74"/>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B75"/>
       <c r="E75"/>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B76"/>
       <c r="E76"/>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B77" s="36"/>
-      <c r="C77" s="37"/>
+      <c r="B77" s="43"/>
+      <c r="C77" s="44"/>
       <c r="E77"/>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B78" s="36"/>
-      <c r="C78" s="37"/>
+      <c r="B78" s="43"/>
+      <c r="C78" s="44"/>
       <c r="E78"/>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B79" s="36"/>
-      <c r="C79" s="37"/>
+      <c r="B79" s="43"/>
+      <c r="C79" s="44"/>
       <c r="E79"/>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B80" s="36"/>
-      <c r="C80" s="37"/>
+      <c r="B80" s="43"/>
+      <c r="C80" s="44"/>
       <c r="E80"/>
     </row>
-    <row r="81" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B81" s="13"/>
       <c r="E81"/>
     </row>
-    <row r="82" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E82"/>
     </row>
-    <row r="83" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E83"/>
     </row>
-    <row r="84" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E84"/>
     </row>
-    <row r="85" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E85"/>
     </row>
-    <row r="86" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E86"/>
     </row>
-    <row r="87" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E87"/>
     </row>
-    <row r="88" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B88" s="17"/>
       <c r="E88"/>
     </row>
-    <row r="89" spans="5:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E89"/>
     </row>
-    <row r="90" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E90"/>
     </row>
-    <row r="91" spans="5:5" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:5" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E91"/>
     </row>
-    <row r="92" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E92"/>
     </row>
-    <row r="93" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E93"/>
     </row>
-    <row r="94" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E94"/>
     </row>
-    <row r="95" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E95"/>
     </row>
-    <row r="96" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E96"/>
     </row>
     <row r="97" spans="5:5" x14ac:dyDescent="0.25">
@@ -1555,6 +1538,7 @@
       <c r="E113"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B114" s="17"/>
       <c r="E114"/>
     </row>
     <row r="115" spans="1:9" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1582,6 +1566,7 @@
       <c r="E122"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B123" s="17"/>
       <c r="E123"/>
     </row>
     <row r="124" spans="1:9" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1595,7 +1580,7 @@
     </row>
     <row r="127" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127"/>
-      <c r="B127"/>
+      <c r="B127" s="16"/>
       <c r="C127"/>
       <c r="D127"/>
       <c r="E127"/>
@@ -1617,6 +1602,7 @@
       <c r="E131"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B132" s="17"/>
       <c r="E132"/>
     </row>
     <row r="133" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
@@ -1630,7 +1616,7 @@
     </row>
     <row r="136" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136"/>
-      <c r="B136"/>
+      <c r="B136" s="16"/>
       <c r="C136"/>
       <c r="D136"/>
       <c r="E136"/>
@@ -1641,7 +1627,7 @@
     </row>
     <row r="137" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137"/>
-      <c r="B137"/>
+      <c r="B137" s="16"/>
       <c r="C137"/>
       <c r="D137"/>
       <c r="E137"/>
@@ -1652,7 +1638,7 @@
     </row>
     <row r="138" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138"/>
-      <c r="B138"/>
+      <c r="B138" s="16"/>
       <c r="C138"/>
       <c r="D138"/>
       <c r="E138"/>
@@ -1663,7 +1649,7 @@
     </row>
     <row r="139" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139"/>
-      <c r="B139"/>
+      <c r="B139" s="16"/>
       <c r="C139"/>
       <c r="D139"/>
       <c r="E139"/>
@@ -1674,7 +1660,7 @@
     </row>
     <row r="140" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140"/>
-      <c r="B140"/>
+      <c r="B140" s="17"/>
       <c r="C140"/>
       <c r="D140"/>
       <c r="E140"/>
@@ -1694,7 +1680,7 @@
     </row>
     <row r="144" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="13"/>
-      <c r="B144" s="13"/>
+      <c r="B144" s="16"/>
       <c r="C144" s="13"/>
       <c r="D144" s="13"/>
       <c r="E144" s="13"/>
@@ -1705,7 +1691,7 @@
     </row>
     <row r="145" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145"/>
-      <c r="B145"/>
+      <c r="B145" s="16"/>
       <c r="C145"/>
       <c r="D145"/>
       <c r="E145"/>
@@ -1716,7 +1702,7 @@
     </row>
     <row r="146" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146"/>
-      <c r="B146"/>
+      <c r="B146" s="16"/>
       <c r="C146"/>
       <c r="D146"/>
       <c r="E146"/>
@@ -1727,7 +1713,7 @@
     </row>
     <row r="147" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147"/>
-      <c r="B147"/>
+      <c r="B147" s="17"/>
       <c r="C147"/>
       <c r="D147"/>
       <c r="E147"/>
@@ -1738,10 +1724,7 @@
     </row>
     <row r="148" spans="1:9" s="13" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148"/>
-      <c r="B148"/>
-      <c r="C148"/>
-      <c r="D148"/>
-      <c r="E148"/>
+      <c r="B148" s="17"/>
       <c r="F148"/>
       <c r="G148"/>
       <c r="H148"/>
@@ -1749,7 +1732,7 @@
     </row>
     <row r="149" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149"/>
-      <c r="B149"/>
+      <c r="B149" s="16"/>
       <c r="C149"/>
       <c r="D149"/>
       <c r="E149"/>
@@ -1762,9 +1745,12 @@
       <c r="E150"/>
     </row>
     <row r="151" spans="1:9" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B151" s="17"/>
+      <c r="C151" s="13"/>
       <c r="E151"/>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C152" s="13"/>
       <c r="E152"/>
     </row>
     <row r="153" spans="1:9" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1778,7 +1764,7 @@
     </row>
     <row r="156" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156"/>
-      <c r="B156"/>
+      <c r="B156" s="16"/>
       <c r="C156"/>
       <c r="D156"/>
       <c r="E156"/>
@@ -1799,52 +1785,54 @@
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E160"/>
     </row>
-    <row r="161" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B161" s="17"/>
       <c r="E161"/>
     </row>
-    <row r="162" spans="5:5" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:5" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E162"/>
     </row>
-    <row r="163" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E163"/>
     </row>
-    <row r="164" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E164"/>
     </row>
-    <row r="165" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E165"/>
     </row>
-    <row r="166" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E166"/>
     </row>
-    <row r="167" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E167"/>
     </row>
-    <row r="168" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E168"/>
     </row>
-    <row r="169" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B169" s="17"/>
       <c r="E169"/>
     </row>
-    <row r="170" spans="5:5" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:5" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E170"/>
     </row>
-    <row r="171" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E171"/>
     </row>
-    <row r="172" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E172"/>
     </row>
-    <row r="173" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E173"/>
     </row>
-    <row r="174" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E174"/>
     </row>
-    <row r="175" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E175"/>
     </row>
-    <row r="176" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E176"/>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
@@ -1860,6 +1848,7 @@
       <c r="E180"/>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B181" s="17"/>
       <c r="E181"/>
     </row>
     <row r="182" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
@@ -1882,7 +1871,7 @@
     </row>
     <row r="188" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188"/>
-      <c r="B188"/>
+      <c r="B188" s="16"/>
       <c r="C188"/>
       <c r="D188"/>
       <c r="E188"/>
@@ -1893,7 +1882,7 @@
     </row>
     <row r="189" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189"/>
-      <c r="B189"/>
+      <c r="B189" s="16"/>
       <c r="C189"/>
       <c r="D189"/>
       <c r="E189"/>
@@ -1911,59 +1900,64 @@
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E192"/>
     </row>
-    <row r="193" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E193"/>
     </row>
-    <row r="194" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E194"/>
     </row>
-    <row r="195" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E195"/>
     </row>
-    <row r="196" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E196"/>
     </row>
-    <row r="197" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E197"/>
     </row>
-    <row r="198" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E198"/>
     </row>
-    <row r="199" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B199" s="17"/>
       <c r="E199"/>
     </row>
-    <row r="200" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B200" s="17"/>
       <c r="E200"/>
     </row>
-    <row r="201" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B201" s="17"/>
       <c r="E201"/>
     </row>
-    <row r="202" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B202" s="17"/>
       <c r="E202"/>
     </row>
-    <row r="203" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B203" s="17"/>
       <c r="E203"/>
     </row>
-    <row r="204" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B204" s="17"/>
       <c r="E204"/>
     </row>
-    <row r="205" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B205" s="17"/>
       <c r="E205"/>
     </row>
-    <row r="206" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E206"/>
     </row>
-    <row r="207" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E207"/>
     </row>
-    <row r="208" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E208"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="40">
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="G56:H56"/>
     <mergeCell ref="B79:C79"/>
     <mergeCell ref="B80:C80"/>
     <mergeCell ref="B54:H54"/>
@@ -1979,17 +1973,19 @@
     <mergeCell ref="B69:C69"/>
     <mergeCell ref="B70:C70"/>
     <mergeCell ref="B71:C71"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="G56:H56"/>
     <mergeCell ref="E17:H17"/>
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="E16:H16"/>
     <mergeCell ref="E18:H18"/>
     <mergeCell ref="B25:H25"/>
     <mergeCell ref="B22:H22"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:H27"/>
     <mergeCell ref="A4:E5"/>
     <mergeCell ref="A6:E7"/>
     <mergeCell ref="E11:H11"/>
